--- a/GalaCasino/Data.xlsx
+++ b/GalaCasino/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>userName</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>https://www.galacasino.com/</t>
+  </si>
+  <si>
+    <t>This field is required</t>
+  </si>
+  <si>
+    <t>fieldRequired</t>
   </si>
 </sst>
 </file>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,9 +435,10 @@
     <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -462,8 +469,11 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -493,6 +503,9 @@
       </c>
       <c r="J2" t="s">
         <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
